--- a/testing-docs/bug-reports/Test_Search.xlsx
+++ b/testing-docs/bug-reports/Test_Search.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="2" r:id="rId1"/>
+    <sheet name="Login" sheetId="3" r:id="rId2"/>
+    <sheet name="Cart" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="167">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -181,13 +183,425 @@
   </si>
   <si>
     <t>Script is not executed and system works normally</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Test steps</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual result </t>
+  </si>
+  <si>
+    <t>login with valid information</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>username: user@gmail.com
+passwword: 123</t>
+  </si>
+  <si>
+    <t>login with invalid password</t>
+  </si>
+  <si>
+    <t>user has a valid account</t>
+  </si>
+  <si>
+    <t>1. navigate to the login page
+2.enter vaild username
+3. enter valid password 
+4. click on the login button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. navigate to the login page
+2. enter a valid username
+3. enter an invalid password
+4. click on the login button </t>
+  </si>
+  <si>
+    <t>the system should redirect the 
+user to the Homepage</t>
+  </si>
+  <si>
+    <t>the system should 
+display an error message
+ "incorrect password "</t>
+  </si>
+  <si>
+    <t>login with invalid username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. navigate to the login page
+2. enter an invalid username
+3. entern a valid password </t>
+  </si>
+  <si>
+    <t>username: user@gmail.com
+password: 456</t>
+  </si>
+  <si>
+    <t>username: user1@gmail.com
+password:124</t>
+  </si>
+  <si>
+    <t>the system should display
+an error message "incorrect username"</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>username:""
+password:""</t>
+  </si>
+  <si>
+    <t>login with empty username and 
+password</t>
+  </si>
+  <si>
+    <t>1. navigate to the login page
+2. leave the username filed empty
+3. leave the password filed empty
+4. click on the login button</t>
+  </si>
+  <si>
+    <t>the system should display
+an error message "Please enter username"</t>
+  </si>
+  <si>
+    <t>login with empty username 
+but valid password</t>
+  </si>
+  <si>
+    <t>1. navigate to the login page
+2. leave the username filed empty
+3. enter a valid password
+4. click on the login button</t>
+  </si>
+  <si>
+    <t>username:""
+password:123</t>
+  </si>
+  <si>
+    <t>the system should display an error message: "please enter username"</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_01</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_02</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_03</t>
+  </si>
+  <si>
+    <t>Keep user logged in after 
+page refresh</t>
+  </si>
+  <si>
+    <t>uesr is logged in</t>
+  </si>
+  <si>
+    <t>1. Login successfully
+2. Refresh the page</t>
+  </si>
+  <si>
+    <t>User remains logged in</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_04</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_05</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_06</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_07</t>
+  </si>
+  <si>
+    <t>login with empty password</t>
+  </si>
+  <si>
+    <t>user is on login page</t>
+  </si>
+  <si>
+    <t>1. navigate to the login page
+2. enter valid username
+3. leave to the password 
+filed empty</t>
+  </si>
+  <si>
+    <t>username:user@gmail.com
+password:""</t>
+  </si>
+  <si>
+    <t>the system should display an error message: "please enter password"</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_08</t>
+  </si>
+  <si>
+    <t>Email does not exsit in 
+system</t>
+  </si>
+  <si>
+    <t>1. navigate to the login page
+2. enter unregistered email
+3.enter valid password
+4. click on the login button</t>
+  </si>
+  <si>
+    <t>username:user123@gmail.com
+password:123</t>
+  </si>
+  <si>
+    <t>error message:"email does not exist: is display</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_09</t>
+  </si>
+  <si>
+    <t>login with unregistered email</t>
+  </si>
+  <si>
+    <t>login with incorrect email 
+and password</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>1. enter incorrect email
+2. enter incorrect password
+3. click on the login button</t>
+  </si>
+  <si>
+    <t>username:user123@gmail.com
+password:456</t>
+  </si>
+  <si>
+    <t>login fail with general error
+message</t>
+  </si>
+  <si>
+    <t>TC_LOGIN_10</t>
+  </si>
+  <si>
+    <t>navigate to forgot password
+page</t>
+  </si>
+  <si>
+    <t>click "forgot password"</t>
+  </si>
+  <si>
+    <t>user is redirected to reset password page</t>
+  </si>
+  <si>
+    <t>TC_CART_01</t>
+  </si>
+  <si>
+    <t>Add product to cart frm product
+detail page</t>
+  </si>
+  <si>
+    <t>1. open PDP
+2. select size and color
+3. click "add to cart"</t>
+  </si>
+  <si>
+    <t>product is added to 
+cart successfully</t>
+  </si>
+  <si>
+    <t>TC_CART_02</t>
+  </si>
+  <si>
+    <t>Add multiple quantities of same
+product</t>
+  </si>
+  <si>
+    <t>product  is in stock</t>
+  </si>
+  <si>
+    <t>1. select product
+2.increase quantity
+3. add to cart</t>
+  </si>
+  <si>
+    <t>corect quantity added</t>
+  </si>
+  <si>
+    <t>TC_CART_03</t>
+  </si>
+  <si>
+    <t>Add multitple different products
+to cart</t>
+  </si>
+  <si>
+    <t>Multiple products 
+available</t>
+  </si>
+  <si>
+    <t>1. Add product "áo sơ mi cà vạt rời"
+2. Add product "quần ống suông"</t>
+  </si>
+  <si>
+    <t>all product appear in cart</t>
+  </si>
+  <si>
+    <t>TC_CART_04</t>
+  </si>
+  <si>
+    <t>Add to cart without selecting size</t>
+  </si>
+  <si>
+    <t>Product requires size</t>
+  </si>
+  <si>
+    <t>1. Open PDP
+2. Do not select size
+3. Click Add to Cart</t>
+  </si>
+  <si>
+    <t>Validation message is
+ displayed</t>
+  </si>
+  <si>
+    <t>TC_CART_05</t>
+  </si>
+  <si>
+    <t>Add to cart without selecting color</t>
+  </si>
+  <si>
+    <t>1. Open PDP
+2. Do not select color
+3. Click Add to Cart</t>
+  </si>
+  <si>
+    <t>Product requires color</t>
+  </si>
+  <si>
+    <t>TC_CART_06</t>
+  </si>
+  <si>
+    <t>Add out-of-stock product</t>
+  </si>
+  <si>
+    <t>Product is out of stock</t>
+  </si>
+  <si>
+    <t>1. Click Add to Cart</t>
+  </si>
+  <si>
+    <t>Product cannot be added, message displayed</t>
+  </si>
+  <si>
+    <t>TC_CART_08</t>
+  </si>
+  <si>
+    <t>TC_CART_07</t>
+  </si>
+  <si>
+    <t>Increase product quantity in cart</t>
+  </si>
+  <si>
+    <t>Product is in cart</t>
+  </si>
+  <si>
+    <t>1. Go to Cart
+2. Increase quantity</t>
+  </si>
+  <si>
+    <t>Quantity and subtotal update correctly</t>
+  </si>
+  <si>
+    <t>Decrease product quantity in cart</t>
+  </si>
+  <si>
+    <t>1. Go to Cart
+2. Decrease quantity</t>
+  </si>
+  <si>
+    <t>TC_CART_09</t>
+  </si>
+  <si>
+    <t>Remove product from cart</t>
+  </si>
+  <si>
+    <t>1. Click Remove/Delete icon</t>
+  </si>
+  <si>
+    <t>Product is removed 
+successfully</t>
+  </si>
+  <si>
+    <t>TC_CART_10</t>
+  </si>
+  <si>
+    <t>Remove all products from cart</t>
+  </si>
+  <si>
+    <t>Multiple products in cart</t>
+  </si>
+  <si>
+    <t>1. Remove all items</t>
+  </si>
+  <si>
+    <t>Cart becomes empty</t>
+  </si>
+  <si>
+    <t>TC_CART_11</t>
+  </si>
+  <si>
+    <t>Verify subtotal calculation</t>
+  </si>
+  <si>
+    <t>Product in cart</t>
+  </si>
+  <si>
+    <t>1. Check price × quantity</t>
+  </si>
+  <si>
+    <t>Subtotal is calculated correctly</t>
+  </si>
+  <si>
+    <t>TC_CART_12</t>
+  </si>
+  <si>
+    <t>Verify total price calculation</t>
+  </si>
+  <si>
+    <t>1. Check total price</t>
+  </si>
+  <si>
+    <t>Total equals sum of subtotals</t>
+  </si>
+  <si>
+    <t>TC_CART_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart updates after quantity </t>
+  </si>
+  <si>
+    <t>1. Update quantity</t>
+  </si>
+  <si>
+    <t>Total price updates correctly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,13 +617,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -335,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -363,6 +791,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1137,4 +1571,683 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="116" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>